--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_134__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_134__Reeval_Halton_Modell_1.2.xlsx
@@ -5993,7 +5993,7 @@
                   <c:v>4.71112585067749</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.64805603027344</c:v>
+                  <c:v>63.6480712890625</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.71112585067749</c:v>
@@ -6041,7 +6041,7 @@
                   <c:v>4.71112585067749</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.12459945678711</c:v>
+                  <c:v>24.12461280822754</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4.71112585067749</c:v>
@@ -6062,7 +6062,7 @@
                   <c:v>95.38613128662109</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.56980133056641</c:v>
+                  <c:v>17.5698356628418</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>95.38613128662109</c:v>
@@ -6116,13 +6116,13 @@
                   <c:v>95.38613128662109</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>19.45576286315918</c:v>
+                  <c:v>19.45578384399414</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>4.71112585067749</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>86.17994689941406</c:v>
+                  <c:v>86.179931640625</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>95.38613128662109</c:v>
@@ -6131,7 +6131,7 @@
                   <c:v>4.71112585067749</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>59.67155075073242</c:v>
+                  <c:v>59.67150497436523</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>95.38613128662109</c:v>
@@ -6188,7 +6188,7 @@
                   <c:v>95.38613128662109</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>87.60443878173828</c:v>
+                  <c:v>87.60445404052734</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>4.71112585067749</c:v>
@@ -6212,7 +6212,7 @@
                   <c:v>4.71112585067749</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>58.02346801757812</c:v>
+                  <c:v>58.02347183227539</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>95.38613128662109</c:v>
@@ -6236,10 +6236,10 @@
                   <c:v>4.71112585067749</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>63.36479949951172</c:v>
+                  <c:v>63.36478805541992</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>62.42299652099609</c:v>
+                  <c:v>62.42299270629883</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>95.38613128662109</c:v>
@@ -7043,7 +7043,7 @@
         <v>88.0701</v>
       </c>
       <c r="F4">
-        <v>63.64805603027344</v>
+        <v>63.6480712890625</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>24.12459945678711</v>
+        <v>24.12461280822754</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>17.56980133056641</v>
+        <v>17.5698356628418</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>19.45576286315918</v>
+        <v>19.45578384399414</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>92.2792</v>
       </c>
       <c r="F47">
-        <v>86.17994689941406</v>
+        <v>86.179931640625</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>60.2136</v>
       </c>
       <c r="F50">
-        <v>59.67155075073242</v>
+        <v>59.67150497436523</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>85.733</v>
       </c>
       <c r="F69">
-        <v>87.60443878173828</v>
+        <v>87.60445404052734</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>84.64230000000001</v>
       </c>
       <c r="F77">
-        <v>58.02346801757812</v>
+        <v>58.02347183227539</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5714</v>
       </c>
       <c r="F85">
-        <v>63.36479949951172</v>
+        <v>63.36478805541992</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>62.42299652099609</v>
+        <v>62.42299270629883</v>
       </c>
     </row>
     <row r="87" spans="1:6">
